--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H2">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N2">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q2">
-        <v>1.051379643105158</v>
+        <v>37.15671345442777</v>
       </c>
       <c r="R2">
-        <v>1.051379643105158</v>
+        <v>334.4104210898499</v>
       </c>
       <c r="S2">
-        <v>4.842942108859288E-05</v>
+        <v>0.001487585626991801</v>
       </c>
       <c r="T2">
-        <v>4.842942108859288E-05</v>
+        <v>0.001487585626991801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H3">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N3">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q3">
-        <v>13.40551645505753</v>
+        <v>182.2258360273329</v>
       </c>
       <c r="R3">
-        <v>13.40551645505753</v>
+        <v>1640.032524245996</v>
       </c>
       <c r="S3">
-        <v>0.0006174947418561607</v>
+        <v>0.007295492774765913</v>
       </c>
       <c r="T3">
-        <v>0.0006174947418561607</v>
+        <v>0.007295492774765913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H4">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N4">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q4">
-        <v>19.66993787720428</v>
+        <v>284.8666713829582</v>
       </c>
       <c r="R4">
-        <v>19.66993787720428</v>
+        <v>2563.800042446624</v>
       </c>
       <c r="S4">
-        <v>0.0009060511210091119</v>
+        <v>0.01140476448429773</v>
       </c>
       <c r="T4">
-        <v>0.0009060511210091119</v>
+        <v>0.01140476448429772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H5">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I5">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J5">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N5">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q5">
-        <v>21.36834914296008</v>
+        <v>291.4825922188311</v>
       </c>
       <c r="R5">
-        <v>21.36834914296008</v>
+        <v>2623.34332996948</v>
       </c>
       <c r="S5">
-        <v>0.0009842845877785185</v>
+        <v>0.01166963583135136</v>
       </c>
       <c r="T5">
-        <v>0.0009842845877785185</v>
+        <v>0.01166963583135136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H6">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I6">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J6">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N6">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q6">
-        <v>4.055795123850441</v>
+        <v>57.17945049431511</v>
       </c>
       <c r="R6">
-        <v>4.055795123850441</v>
+        <v>514.615054448836</v>
       </c>
       <c r="S6">
-        <v>0.0001868210129329743</v>
+        <v>0.002289204851741169</v>
       </c>
       <c r="T6">
-        <v>0.0001868210129329743</v>
+        <v>0.002289204851741169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H7">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I7">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J7">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N7">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q7">
-        <v>6.854028363307075</v>
+        <v>99.460095710218</v>
       </c>
       <c r="R7">
-        <v>6.854028363307075</v>
+        <v>895.1408613919619</v>
       </c>
       <c r="S7">
-        <v>0.0003157152869913016</v>
+        <v>0.003981929376483058</v>
       </c>
       <c r="T7">
-        <v>0.0003157152869913016</v>
+        <v>0.003981929376483058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H8">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I8">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J8">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N8">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q8">
-        <v>41.57002861369968</v>
+        <v>108.8916044456528</v>
       </c>
       <c r="R8">
-        <v>41.57002861369968</v>
+        <v>980.0244400108749</v>
       </c>
       <c r="S8">
-        <v>0.001914829180496466</v>
+        <v>0.004359524043268865</v>
       </c>
       <c r="T8">
-        <v>0.001914829180496466</v>
+        <v>0.004359524043268865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H9">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I9">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J9">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N9">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q9">
-        <v>530.0347084639398</v>
+        <v>534.0317216376989</v>
       </c>
       <c r="R9">
-        <v>530.0347084639398</v>
+        <v>4806.28549473929</v>
       </c>
       <c r="S9">
-        <v>0.02441484791540926</v>
+        <v>0.02138019861310583</v>
       </c>
       <c r="T9">
-        <v>0.02441484791540926</v>
+        <v>0.02138019861310583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H10">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I10">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J10">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N10">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q10">
-        <v>777.7208601548824</v>
+        <v>834.8313404528622</v>
       </c>
       <c r="R10">
-        <v>777.7208601548824</v>
+        <v>7513.482064075759</v>
       </c>
       <c r="S10">
-        <v>0.03582394929635924</v>
+        <v>0.03342284576764656</v>
       </c>
       <c r="T10">
-        <v>0.03582394929635924</v>
+        <v>0.03342284576764655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H11">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I11">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J11">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N11">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q11">
-        <v>844.8735821790401</v>
+        <v>854.219982981411</v>
       </c>
       <c r="R11">
-        <v>844.8735821790401</v>
+        <v>7687.979846832699</v>
       </c>
       <c r="S11">
-        <v>0.03891718728463545</v>
+        <v>0.0341990787352831</v>
       </c>
       <c r="T11">
-        <v>0.03891718728463545</v>
+        <v>0.0341990787352831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H12">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I12">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J12">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N12">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q12">
-        <v>160.3602661088458</v>
+        <v>167.5703130548211</v>
       </c>
       <c r="R12">
-        <v>160.3602661088458</v>
+        <v>1508.13281749339</v>
       </c>
       <c r="S12">
-        <v>0.007386632320868834</v>
+        <v>0.006708752363596456</v>
       </c>
       <c r="T12">
-        <v>0.007386632320868834</v>
+        <v>0.006708752363596456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H13">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I13">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J13">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N13">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q13">
-        <v>270.9983563504155</v>
+        <v>291.478131226195</v>
       </c>
       <c r="R13">
-        <v>270.9983563504155</v>
+        <v>2623.303181035755</v>
       </c>
       <c r="S13">
-        <v>0.01248292526879193</v>
+        <v>0.01166945723351774</v>
       </c>
       <c r="T13">
-        <v>0.01248292526879193</v>
+        <v>0.01166945723351773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H14">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I14">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J14">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N14">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q14">
-        <v>52.37505384770571</v>
+        <v>152.7591756799889</v>
       </c>
       <c r="R14">
-        <v>52.37505384770571</v>
+        <v>1374.8325811199</v>
       </c>
       <c r="S14">
-        <v>0.00241253818633672</v>
+        <v>0.006115781860292268</v>
       </c>
       <c r="T14">
-        <v>0.00241253818633672</v>
+        <v>0.006115781860292268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H15">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I15">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J15">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N15">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q15">
-        <v>667.8031582543377</v>
+        <v>749.1692862791405</v>
       </c>
       <c r="R15">
-        <v>667.8031582543377</v>
+        <v>6742.523576512263</v>
       </c>
       <c r="S15">
-        <v>0.03076083940514035</v>
+        <v>0.02999332714986804</v>
       </c>
       <c r="T15">
-        <v>0.03076083940514035</v>
+        <v>0.02999332714986804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H16">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I16">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J16">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N16">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q16">
-        <v>979.8687488916493</v>
+        <v>1171.147656870535</v>
       </c>
       <c r="R16">
-        <v>979.8687488916493</v>
+        <v>10540.32891183481</v>
       </c>
       <c r="S16">
-        <v>0.04513543377297442</v>
+        <v>0.04688741978169028</v>
       </c>
       <c r="T16">
-        <v>0.04513543377297442</v>
+        <v>0.04688741978169027</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H17">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I17">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J17">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N17">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q17">
-        <v>1064.476038069126</v>
+        <v>1198.347118806035</v>
       </c>
       <c r="R17">
-        <v>1064.476038069126</v>
+        <v>10785.12406925432</v>
       </c>
       <c r="S17">
-        <v>0.04903267684935625</v>
+        <v>0.0479763623946258</v>
       </c>
       <c r="T17">
-        <v>0.04903267684935625</v>
+        <v>0.0479763623946258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H18">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I18">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J18">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N18">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q18">
-        <v>202.041659642142</v>
+        <v>235.0769191160916</v>
       </c>
       <c r="R18">
-        <v>202.041659642142</v>
+        <v>2115.692272044824</v>
       </c>
       <c r="S18">
-        <v>0.00930659127406064</v>
+        <v>0.009411409503251976</v>
       </c>
       <c r="T18">
-        <v>0.00930659127406064</v>
+        <v>0.009411409503251976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H19">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I19">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J19">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N19">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q19">
-        <v>341.43718394784</v>
+        <v>408.901671359612</v>
       </c>
       <c r="R19">
-        <v>341.43718394784</v>
+        <v>3680.115042236508</v>
       </c>
       <c r="S19">
-        <v>0.01572753026478315</v>
+        <v>0.01637056113462583</v>
       </c>
       <c r="T19">
-        <v>0.01572753026478315</v>
+        <v>0.01637056113462583</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H20">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I20">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J20">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N20">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q20">
-        <v>68.23064438130037</v>
+        <v>183.0001073528833</v>
       </c>
       <c r="R20">
-        <v>68.23064438130037</v>
+        <v>1647.00096617595</v>
       </c>
       <c r="S20">
-        <v>0.003142890039347594</v>
+        <v>0.0073264910732751</v>
       </c>
       <c r="T20">
-        <v>0.003142890039347594</v>
+        <v>0.0073264910732751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H21">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I21">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J21">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N21">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q21">
-        <v>869.9683620383893</v>
+        <v>897.4783950246547</v>
       </c>
       <c r="R21">
-        <v>869.9683620383893</v>
+        <v>8077.305555221892</v>
       </c>
       <c r="S21">
-        <v>0.04007312146017702</v>
+        <v>0.03593094859188233</v>
       </c>
       <c r="T21">
-        <v>0.04007312146017702</v>
+        <v>0.03593094859188233</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H22">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I22">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J22">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N22">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q22">
-        <v>1276.506108048698</v>
+        <v>1402.993607286538</v>
       </c>
       <c r="R22">
-        <v>1276.506108048698</v>
+        <v>12626.94246557885</v>
       </c>
       <c r="S22">
-        <v>0.05879936161429752</v>
+        <v>0.05616947600924401</v>
       </c>
       <c r="T22">
-        <v>0.05879936161429752</v>
+        <v>0.056169476009244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H23">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I23">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J23">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N23">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q23">
-        <v>1386.726708045029</v>
+        <v>1435.577603841773</v>
       </c>
       <c r="R23">
-        <v>1386.726708045029</v>
+        <v>12920.19843457596</v>
       </c>
       <c r="S23">
-        <v>0.06387642382000523</v>
+        <v>0.05747399087181297</v>
       </c>
       <c r="T23">
-        <v>0.06387642382000523</v>
+        <v>0.05747399087181297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H24">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I24">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J24">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N24">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q24">
-        <v>263.2060803094446</v>
+        <v>281.6138620998414</v>
       </c>
       <c r="R24">
-        <v>263.2060803094446</v>
+        <v>2534.524758898572</v>
       </c>
       <c r="S24">
-        <v>0.01212399172837052</v>
+        <v>0.01127453681109824</v>
       </c>
       <c r="T24">
-        <v>0.01212399172837052</v>
+        <v>0.01127453681109824</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H25">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I25">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J25">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N25">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q25">
-        <v>444.801052505614</v>
+        <v>489.849787565886</v>
       </c>
       <c r="R25">
-        <v>444.801052505614</v>
+        <v>4408.648088092974</v>
       </c>
       <c r="S25">
-        <v>0.0204887526724627</v>
+        <v>0.01961135513940792</v>
       </c>
       <c r="T25">
-        <v>0.0204887526724627</v>
+        <v>0.01961135513940791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H26">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I26">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J26">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N26">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q26">
-        <v>164.1459893542142</v>
+        <v>446.9291306718195</v>
       </c>
       <c r="R26">
-        <v>164.1459893542142</v>
+        <v>4022.362176046375</v>
       </c>
       <c r="S26">
-        <v>0.007561013084636851</v>
+        <v>0.01789300746113521</v>
       </c>
       <c r="T26">
-        <v>0.007561013084636851</v>
+        <v>0.01789300746113521</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H27">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I27">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J27">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N27">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q27">
-        <v>2092.927874103349</v>
+        <v>2191.852478597953</v>
       </c>
       <c r="R27">
-        <v>2092.927874103349</v>
+        <v>19726.67230738157</v>
       </c>
       <c r="S27">
-        <v>0.09640598045407155</v>
+        <v>0.08775179343156153</v>
       </c>
       <c r="T27">
-        <v>0.09640598045407155</v>
+        <v>0.08775179343156153</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H28">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I28">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J28">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N28">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q28">
-        <v>3070.95675150588</v>
+        <v>3426.439045926676</v>
       </c>
       <c r="R28">
-        <v>3070.95675150588</v>
+        <v>30837.95141334008</v>
       </c>
       <c r="S28">
-        <v>0.1414566647156019</v>
+        <v>0.1371790183417481</v>
       </c>
       <c r="T28">
-        <v>0.1414566647156019</v>
+        <v>0.137179018341748</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H29">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I29">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J29">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N29">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q29">
-        <v>3336.120148358853</v>
+        <v>3506.016798447678</v>
       </c>
       <c r="R29">
-        <v>3336.120148358853</v>
+        <v>31554.1511860291</v>
       </c>
       <c r="S29">
-        <v>0.1536708157957459</v>
+        <v>0.1403649492240297</v>
       </c>
       <c r="T29">
-        <v>0.1536708157957459</v>
+        <v>0.1403649492240297</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H30">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I30">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J30">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N30">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q30">
-        <v>633.2084776306071</v>
+        <v>687.7670204352079</v>
       </c>
       <c r="R30">
-        <v>633.2084776306071</v>
+        <v>6189.903183916871</v>
       </c>
       <c r="S30">
-        <v>0.02916731382535655</v>
+        <v>0.02753505999859826</v>
       </c>
       <c r="T30">
-        <v>0.02916731382535655</v>
+        <v>0.02753505999859826</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H31">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I31">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J31">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N31">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O31">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P31">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q31">
-        <v>1070.080892411151</v>
+        <v>1196.327930531935</v>
       </c>
       <c r="R31">
-        <v>1070.080892411151</v>
+        <v>10766.95137478742</v>
       </c>
       <c r="S31">
-        <v>0.04929085176538229</v>
+        <v>0.047895523289778</v>
       </c>
       <c r="T31">
-        <v>0.04929085176538229</v>
+        <v>0.047895523289778</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H32">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I32">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J32">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N32">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O32">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P32">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q32">
-        <v>16.35024631903262</v>
+        <v>45.77323830708611</v>
       </c>
       <c r="R32">
-        <v>16.35024631903262</v>
+        <v>411.959144763775</v>
       </c>
       <c r="S32">
-        <v>0.0007531370509971422</v>
+        <v>0.00183255204984707</v>
       </c>
       <c r="T32">
-        <v>0.0007531370509971422</v>
+        <v>0.00183255204984707</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H33">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I33">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J33">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N33">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P33">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q33">
-        <v>208.4722654765279</v>
+        <v>224.4834336173816</v>
       </c>
       <c r="R33">
-        <v>208.4722654765279</v>
+        <v>2020.350902556434</v>
       </c>
       <c r="S33">
-        <v>0.009602802561629853</v>
+        <v>0.00898729457750767</v>
       </c>
       <c r="T33">
-        <v>0.009602802561629853</v>
+        <v>0.00898729457750767</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H34">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I34">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J34">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N34">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O34">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P34">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q34">
-        <v>305.8917218736682</v>
+        <v>350.9263555010329</v>
       </c>
       <c r="R34">
-        <v>305.8917218736682</v>
+        <v>3158.337199509296</v>
       </c>
       <c r="S34">
-        <v>0.01409020909172474</v>
+        <v>0.01404949345738607</v>
       </c>
       <c r="T34">
-        <v>0.01409020909172474</v>
+        <v>0.01404949345738607</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H35">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I35">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J35">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N35">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O35">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P35">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q35">
-        <v>332.3041055718277</v>
+        <v>359.0764875468244</v>
       </c>
       <c r="R35">
-        <v>332.3041055718277</v>
+        <v>3231.68838792142</v>
       </c>
       <c r="S35">
-        <v>0.01530683570273067</v>
+        <v>0.0143757876358062</v>
       </c>
       <c r="T35">
-        <v>0.01530683570273067</v>
+        <v>0.0143757876358062</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H36">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I36">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J36">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N36">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O36">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P36">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q36">
-        <v>63.07260153776207</v>
+        <v>70.43918501981045</v>
       </c>
       <c r="R36">
-        <v>63.07260153776207</v>
+        <v>633.9526651782941</v>
       </c>
       <c r="S36">
-        <v>0.002905296482632957</v>
+        <v>0.002820064248712493</v>
       </c>
       <c r="T36">
-        <v>0.002905296482632957</v>
+        <v>0.002820064248712493</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H37">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I37">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J37">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N37">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O37">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P37">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q37">
-        <v>106.588569364661</v>
+        <v>122.524578729847</v>
       </c>
       <c r="R37">
-        <v>106.588569364661</v>
+        <v>1102.721208568623</v>
       </c>
       <c r="S37">
-        <v>0.004909760943959572</v>
+        <v>0.004905326260765567</v>
       </c>
       <c r="T37">
-        <v>0.004909760943959572</v>
+        <v>0.004905326260765566</v>
       </c>
     </row>
   </sheetData>
